--- a/data/health/indicator_6reported incidence infectious tb per 100000.xlsx
+++ b/data/health/indicator_6reported incidence infectious tb per 100000.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D1" sqref="D1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1425,41 +1425,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" s="18">
+        <v>20</v>
+      </c>
+      <c r="F5" s="18">
+        <v>17</v>
+      </c>
+      <c r="G5" s="18">
         <v>16</v>
-      </c>
-      <c r="F5" s="18">
-        <v>29</v>
-      </c>
-      <c r="G5" s="18">
-        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E6" s="18">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" s="18">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G6" s="18">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1505,21 +1505,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="18">
-        <v>24</v>
-      </c>
-      <c r="E9" s="18">
-        <v>34</v>
-      </c>
-      <c r="F9" s="18">
-        <v>44</v>
-      </c>
-      <c r="G9" s="18">
-        <v>51</v>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>66</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1527,19 +1515,19 @@
     </row>
     <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="18">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E10" s="18">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F10" s="18">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="G10" s="18">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1547,19 +1535,19 @@
     </row>
     <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="18">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E11" s="18">
+        <v>10</v>
+      </c>
+      <c r="F11" s="18">
+        <v>8</v>
+      </c>
+      <c r="G11" s="18">
         <v>7</v>
-      </c>
-      <c r="F11" s="18">
-        <v>4</v>
-      </c>
-      <c r="G11" s="18">
-        <v>3</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1567,19 +1555,17 @@
     </row>
     <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="18">
-        <v>34</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D12" s="18"/>
       <c r="E12" s="18">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F12" s="18">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G12" s="18">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1587,19 +1573,19 @@
     </row>
     <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="18">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E13" s="18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F13" s="18">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G13" s="18">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1607,17 +1593,19 @@
     </row>
     <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="D14" s="18">
+        <v>34</v>
+      </c>
       <c r="E14" s="18">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F14" s="18">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G14" s="18">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1625,19 +1613,19 @@
     </row>
     <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="18">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E15" s="18">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F15" s="18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G15" s="18">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1645,17 +1633,17 @@
     </row>
     <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="18">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G16" s="18">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1663,19 +1651,19 @@
     </row>
     <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D17" s="18">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="E17" s="18">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="F17" s="18">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="G17" s="18">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1683,19 +1671,17 @@
     </row>
     <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="18">
-        <v>10</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D18" s="18"/>
       <c r="E18" s="18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" s="18">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G18" s="18">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1703,19 +1689,19 @@
     </row>
     <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="18">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E19" s="18">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F19" s="18">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="G19" s="18">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1723,19 +1709,19 @@
     </row>
     <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D20" s="18">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E20" s="18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F20" s="18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G20" s="18">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1743,15 +1729,19 @@
     </row>
     <row r="21" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="18">
         <v>46</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="18">
+        <v>46</v>
+      </c>
       <c r="F21" s="18">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G21" s="18">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1759,19 +1749,19 @@
     </row>
     <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D22" s="18">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E22" s="18">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F22" s="18">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G22" s="18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1779,19 +1769,19 @@
     </row>
     <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E23" s="18">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G23" s="18">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1799,19 +1789,19 @@
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D24" s="18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E24" s="18">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G24" s="18">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1819,25 +1809,35 @@
     </row>
     <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="18">
-        <v>115</v>
-      </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="18">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="G25" s="18">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>66</v>
+    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1853,17 +1853,19 @@
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="D28" s="18">
+        <v>36</v>
+      </c>
       <c r="E28" s="18">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G28" s="18">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1871,39 +1873,37 @@
     </row>
     <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D29" s="18">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E29" s="18">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F29" s="18">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G29" s="18">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="18">
-        <v>20</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D30" s="18"/>
       <c r="E30" s="18">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F30" s="18">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="G30" s="18">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H30">
         <v>0</v>
